--- a/PoundPupLegacy.Convert/files/FormalIntermediateLevelSubdivisions.xlsx
+++ b/PoundPupLegacy.Convert/files/FormalIntermediateLevelSubdivisions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_af\source\repos\PoundPupLegacy\PoundPupLegacy.Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pd_af\source\repos\PoundPupLegacy\PoundPupLegacy.Convert\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F053BF-D988-40D5-A1C1-4750964F1CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A818F10-28C5-4F6D-9C18-3FF00E2F5ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28840" windowHeight="15460" xr2:uid="{7820BEDA-216C-45D9-AF12-C83D70C48B86}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{7820BEDA-216C-45D9-AF12-C83D70C48B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="623">
   <si>
     <t>Id</t>
   </si>
@@ -1843,6 +1844,66 @@
   </si>
   <si>
     <t>GB-NIR</t>
+  </si>
+  <si>
+    <t>Subdivision_type_name</t>
+  </si>
+  <si>
+    <t>Metropolitan region</t>
+  </si>
+  <si>
+    <t>Autonomous region</t>
+  </si>
+  <si>
+    <t>Autonomous community</t>
+  </si>
+  <si>
+    <t>Metropolitan collective with special status</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Autonomous city</t>
+  </si>
+  <si>
+    <t>Autonomous republic</t>
+  </si>
+  <si>
+    <t>Geographical region</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Dependency</t>
+  </si>
+  <si>
+    <t>Governorate</t>
+  </si>
+  <si>
+    <t>Administrative region</t>
+  </si>
+  <si>
+    <t>Geographical unit</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Island chain</t>
+  </si>
+  <si>
+    <t>Autonomous province</t>
+  </si>
+  <si>
+    <t>Metropolitan collectivity with special status</t>
   </si>
 </sst>
 </file>
@@ -2195,10 +2256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE658DB-E3AF-4E7C-89A8-5DC2E237B286}">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2209,9 +2270,10 @@
     <col min="9" max="9" width="50.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="35.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2245,8 +2307,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2280,8 +2345,11 @@
       <c r="K2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -2315,8 +2383,11 @@
       <c r="K3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2350,8 +2421,11 @@
       <c r="K4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2385,8 +2459,11 @@
       <c r="K5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2420,8 +2497,11 @@
       <c r="K6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2455,8 +2535,11 @@
       <c r="K7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2490,8 +2573,11 @@
       <c r="K8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2525,8 +2611,11 @@
       <c r="K9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2560,8 +2649,11 @@
       <c r="K10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2595,8 +2687,11 @@
       <c r="K11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2630,8 +2725,11 @@
       <c r="K12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2665,8 +2763,11 @@
       <c r="K13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2700,8 +2801,11 @@
       <c r="K14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2735,8 +2839,11 @@
       <c r="K15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L15" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2770,8 +2877,11 @@
       <c r="K16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2805,8 +2915,11 @@
       <c r="K17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2840,8 +2953,11 @@
       <c r="K18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2875,8 +2991,11 @@
       <c r="K19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2910,8 +3029,11 @@
       <c r="K20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2945,8 +3067,11 @@
       <c r="K21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2980,8 +3105,11 @@
       <c r="K22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3015,8 +3143,11 @@
       <c r="K23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3050,8 +3181,11 @@
       <c r="K24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L24" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3085,8 +3219,11 @@
       <c r="K25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L25" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3120,8 +3257,11 @@
       <c r="K26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3155,8 +3295,11 @@
       <c r="K27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3190,8 +3333,11 @@
       <c r="K28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3225,8 +3371,11 @@
       <c r="K29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3260,8 +3409,11 @@
       <c r="K30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3295,8 +3447,11 @@
       <c r="K31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L31" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="K32" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3365,8 +3523,11 @@
       <c r="K33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L33" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3400,8 +3561,11 @@
       <c r="K34" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L34" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3435,8 +3599,11 @@
       <c r="K35" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L35" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3470,8 +3637,11 @@
       <c r="K36" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L36" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3505,8 +3675,11 @@
       <c r="K37" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L37" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3540,8 +3713,11 @@
       <c r="K38" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L38" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3575,8 +3751,11 @@
       <c r="K39" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L39" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0</v>
       </c>
@@ -3610,8 +3789,11 @@
       <c r="K40" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L40" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3645,8 +3827,11 @@
       <c r="K41" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L41" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3680,8 +3865,11 @@
       <c r="K42" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3715,8 +3903,11 @@
       <c r="K43" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3750,8 +3941,11 @@
       <c r="K44" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L44" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3785,8 +3979,11 @@
       <c r="K45" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L45" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3820,8 +4017,11 @@
       <c r="K46" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L46" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3855,8 +4055,11 @@
       <c r="K47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L47" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3890,8 +4093,11 @@
       <c r="K48" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3925,8 +4131,11 @@
       <c r="K49" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L49" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3960,8 +4169,11 @@
       <c r="K50" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L50" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3995,8 +4207,11 @@
       <c r="K51" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -4030,8 +4245,11 @@
       <c r="K52" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -4065,8 +4283,11 @@
       <c r="K53" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L53" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
@@ -4100,8 +4321,11 @@
       <c r="K54" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L54" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -4135,8 +4359,11 @@
       <c r="K55" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L55" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0</v>
       </c>
@@ -4170,8 +4397,11 @@
       <c r="K56" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L56" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4205,8 +4435,11 @@
       <c r="K57" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L57" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4240,8 +4473,11 @@
       <c r="K58" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L58" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -4275,8 +4511,11 @@
       <c r="K59" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L59" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0</v>
       </c>
@@ -4310,8 +4549,11 @@
       <c r="K60" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L60" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0</v>
       </c>
@@ -4345,8 +4587,11 @@
       <c r="K61" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L61" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0</v>
       </c>
@@ -4380,8 +4625,11 @@
       <c r="K62" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L62" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0</v>
       </c>
@@ -4415,8 +4663,11 @@
       <c r="K63" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L63" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0</v>
       </c>
@@ -4450,8 +4701,11 @@
       <c r="K64" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L64" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4485,8 +4739,11 @@
       <c r="K65" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L65" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0</v>
       </c>
@@ -4520,8 +4777,11 @@
       <c r="K66" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L66" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -4555,8 +4815,11 @@
       <c r="K67" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L67" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0</v>
       </c>
@@ -4590,8 +4853,11 @@
       <c r="K68" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L68" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -4625,8 +4891,11 @@
       <c r="K69" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L69" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -4660,8 +4929,11 @@
       <c r="K70" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L70" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -4695,8 +4967,11 @@
       <c r="K71" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L71" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -4730,8 +5005,11 @@
       <c r="K72" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L72" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0</v>
       </c>
@@ -4765,8 +5043,11 @@
       <c r="K73" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L73" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0</v>
       </c>
@@ -4800,8 +5081,11 @@
       <c r="K74" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L74" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0</v>
       </c>
@@ -4835,8 +5119,11 @@
       <c r="K75" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L75" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0</v>
       </c>
@@ -4870,8 +5157,11 @@
       <c r="K76" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0</v>
       </c>
@@ -4905,8 +5195,11 @@
       <c r="K77" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0</v>
       </c>
@@ -4940,8 +5233,11 @@
       <c r="K78" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L78" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4975,8 +5271,11 @@
       <c r="K79" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L79" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0</v>
       </c>
@@ -5010,8 +5309,11 @@
       <c r="K80" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L80" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0</v>
       </c>
@@ -5045,8 +5347,11 @@
       <c r="K81" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L81" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0</v>
       </c>
@@ -5080,8 +5385,11 @@
       <c r="K82" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L82" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0</v>
       </c>
@@ -5115,8 +5423,11 @@
       <c r="K83" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L83" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0</v>
       </c>
@@ -5150,8 +5461,11 @@
       <c r="K84" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L84" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0</v>
       </c>
@@ -5185,8 +5499,11 @@
       <c r="K85" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L85" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -5220,8 +5537,11 @@
       <c r="K86" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L86" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0</v>
       </c>
@@ -5255,8 +5575,11 @@
       <c r="K87" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0</v>
       </c>
@@ -5290,8 +5613,11 @@
       <c r="K88" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0</v>
       </c>
@@ -5325,8 +5651,11 @@
       <c r="K89" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L89" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0</v>
       </c>
@@ -5360,8 +5689,11 @@
       <c r="K90" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L90" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -5395,8 +5727,11 @@
       <c r="K91" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L91" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -5430,8 +5765,11 @@
       <c r="K92" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L92" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0</v>
       </c>
@@ -5465,8 +5803,11 @@
       <c r="K93" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L93" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0</v>
       </c>
@@ -5500,8 +5841,11 @@
       <c r="K94" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L94" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0</v>
       </c>
@@ -5535,8 +5879,11 @@
       <c r="K95" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L95" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0</v>
       </c>
@@ -5570,8 +5917,11 @@
       <c r="K96" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L96" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0</v>
       </c>
@@ -5605,8 +5955,11 @@
       <c r="K97" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L97" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0</v>
       </c>
@@ -5640,8 +5993,11 @@
       <c r="K98" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L98" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0</v>
       </c>
@@ -5675,8 +6031,11 @@
       <c r="K99" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L99" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0</v>
       </c>
@@ -5710,8 +6069,11 @@
       <c r="K100" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L100" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0</v>
       </c>
@@ -5745,8 +6107,11 @@
       <c r="K101" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L101" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0</v>
       </c>
@@ -5780,8 +6145,11 @@
       <c r="K102" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L102" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5815,8 +6183,11 @@
       <c r="K103" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L103" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5850,8 +6221,11 @@
       <c r="K104" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L104" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5885,8 +6259,11 @@
       <c r="K105" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L105" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5920,8 +6297,11 @@
       <c r="K106" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L106" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5955,8 +6335,11 @@
       <c r="K107" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L107" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -5990,8 +6373,11 @@
       <c r="K108" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L108" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0</v>
       </c>
@@ -6025,8 +6411,11 @@
       <c r="K109" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L109" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0</v>
       </c>
@@ -6060,8 +6449,11 @@
       <c r="K110" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L110" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0</v>
       </c>
@@ -6095,8 +6487,11 @@
       <c r="K111" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L111" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -6130,8 +6525,11 @@
       <c r="K112" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L112" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0</v>
       </c>
@@ -6165,8 +6563,11 @@
       <c r="K113" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L113" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -6200,8 +6601,11 @@
       <c r="K114" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L114" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -6235,8 +6639,11 @@
       <c r="K115" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L115" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0</v>
       </c>
@@ -6270,8 +6677,11 @@
       <c r="K116" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L116" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -6305,8 +6715,11 @@
       <c r="K117" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L117" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0</v>
       </c>
@@ -6340,8 +6753,11 @@
       <c r="K118" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L118" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0</v>
       </c>
@@ -6375,8 +6791,11 @@
       <c r="K119" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L119" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -6410,8 +6829,11 @@
       <c r="K120" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L120" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0</v>
       </c>
@@ -6445,8 +6867,11 @@
       <c r="K121" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L121" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0</v>
       </c>
@@ -6480,8 +6905,11 @@
       <c r="K122" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L122" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0</v>
       </c>
@@ -6515,8 +6943,11 @@
       <c r="K123" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L123" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0</v>
       </c>
@@ -6550,8 +6981,11 @@
       <c r="K124" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L124" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0</v>
       </c>
@@ -6585,8 +7019,11 @@
       <c r="K125" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L125" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0</v>
       </c>
@@ -6620,8 +7057,11 @@
       <c r="K126" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L126" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
@@ -6655,8 +7095,11 @@
       <c r="K127" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L127" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -6690,8 +7133,11 @@
       <c r="K128" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L128" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0</v>
       </c>
@@ -6725,8 +7171,11 @@
       <c r="K129" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L129" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0</v>
       </c>
@@ -6760,8 +7209,11 @@
       <c r="K130" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L130" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0</v>
       </c>
@@ -6795,8 +7247,11 @@
       <c r="K131" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L131" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0</v>
       </c>
@@ -6830,8 +7285,11 @@
       <c r="K132" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L132" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0</v>
       </c>
@@ -6865,8 +7323,11 @@
       <c r="K133" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L133" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0</v>
       </c>
@@ -6900,8 +7361,11 @@
       <c r="K134" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L134" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0</v>
       </c>
@@ -6935,8 +7399,11 @@
       <c r="K135" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L135" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0</v>
       </c>
@@ -6970,8 +7437,11 @@
       <c r="K136" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L136" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0</v>
       </c>
@@ -7005,8 +7475,11 @@
       <c r="K137" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L137" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0</v>
       </c>
@@ -7040,8 +7513,11 @@
       <c r="K138" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L138" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0</v>
       </c>
@@ -7075,8 +7551,11 @@
       <c r="K139" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L139" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>11572</v>
       </c>
@@ -7110,8 +7589,11 @@
       <c r="K140" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L140" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0</v>
       </c>
@@ -7145,8 +7627,11 @@
       <c r="K141" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L141" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0</v>
       </c>
@@ -7180,8 +7665,11 @@
       <c r="K142" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L142" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0</v>
       </c>
@@ -7215,8 +7703,11 @@
       <c r="K143" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L143" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0</v>
       </c>
@@ -7250,8 +7741,11 @@
       <c r="K144" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L144" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0</v>
       </c>
@@ -7285,8 +7779,11 @@
       <c r="K145" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L145" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0</v>
       </c>
@@ -7320,8 +7817,11 @@
       <c r="K146" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L146" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0</v>
       </c>
@@ -7355,8 +7855,11 @@
       <c r="K147" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L147" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0</v>
       </c>
@@ -7390,8 +7893,11 @@
       <c r="K148" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L148" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -7425,8 +7931,11 @@
       <c r="K149" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L149" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0</v>
       </c>
@@ -7460,8 +7969,11 @@
       <c r="K150" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L150" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0</v>
       </c>
@@ -7495,8 +8007,11 @@
       <c r="K151" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L151" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0</v>
       </c>
@@ -7530,8 +8045,11 @@
       <c r="K152" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L152" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0</v>
       </c>
@@ -7565,8 +8083,11 @@
       <c r="K153" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L153" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0</v>
       </c>
@@ -7600,8 +8121,11 @@
       <c r="K154" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L154" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0</v>
       </c>
@@ -7635,8 +8159,11 @@
       <c r="K155" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L155" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0</v>
       </c>
@@ -7670,8 +8197,11 @@
       <c r="K156" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L156" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0</v>
       </c>
@@ -7705,8 +8235,11 @@
       <c r="K157" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L157" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0</v>
       </c>
@@ -7740,8 +8273,11 @@
       <c r="K158" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L158" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0</v>
       </c>
@@ -7775,8 +8311,11 @@
       <c r="K159" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L159" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0</v>
       </c>
@@ -7810,8 +8349,11 @@
       <c r="K160" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L160" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0</v>
       </c>
@@ -7845,8 +8387,11 @@
       <c r="K161" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L161" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0</v>
       </c>
@@ -7880,8 +8425,11 @@
       <c r="K162" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L162" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0</v>
       </c>
@@ -7915,8 +8463,11 @@
       <c r="K163" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L163" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0</v>
       </c>
@@ -7950,8 +8501,11 @@
       <c r="K164" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L164" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0</v>
       </c>
@@ -7985,8 +8539,11 @@
       <c r="K165" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L165" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0</v>
       </c>
@@ -8020,8 +8577,11 @@
       <c r="K166" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L166" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0</v>
       </c>
@@ -8055,8 +8615,11 @@
       <c r="K167" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L167" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0</v>
       </c>
@@ -8090,8 +8653,11 @@
       <c r="K168" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L168" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0</v>
       </c>
@@ -8125,8 +8691,11 @@
       <c r="K169" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L169" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0</v>
       </c>
@@ -8160,8 +8729,11 @@
       <c r="K170" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L170" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0</v>
       </c>
@@ -8195,8 +8767,11 @@
       <c r="K171" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L171" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0</v>
       </c>
@@ -8230,8 +8805,11 @@
       <c r="K172" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L172" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0</v>
       </c>
@@ -8265,8 +8843,11 @@
       <c r="K173" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L173" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0</v>
       </c>
@@ -8300,8 +8881,11 @@
       <c r="K174" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L174" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0</v>
       </c>
@@ -8335,8 +8919,11 @@
       <c r="K175" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L175" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0</v>
       </c>
@@ -8370,8 +8957,11 @@
       <c r="K176" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L176" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0</v>
       </c>
@@ -8405,8 +8995,11 @@
       <c r="K177" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L177" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0</v>
       </c>
@@ -8440,8 +9033,11 @@
       <c r="K178" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L178" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0</v>
       </c>
@@ -8475,8 +9071,11 @@
       <c r="K179" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L179" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0</v>
       </c>
@@ -8510,8 +9109,11 @@
       <c r="K180" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L180" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0</v>
       </c>
@@ -8545,8 +9147,11 @@
       <c r="K181" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L181" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0</v>
       </c>
@@ -8580,8 +9185,11 @@
       <c r="K182" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L182" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0</v>
       </c>
@@ -8615,8 +9223,11 @@
       <c r="K183" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L183" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0</v>
       </c>
@@ -8650,8 +9261,11 @@
       <c r="K184" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L184" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0</v>
       </c>
@@ -8685,8 +9299,11 @@
       <c r="K185" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L185" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0</v>
       </c>
@@ -8720,8 +9337,11 @@
       <c r="K186" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L186" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0</v>
       </c>
@@ -8755,8 +9375,11 @@
       <c r="K187" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L187" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>0</v>
       </c>
@@ -8790,8 +9413,11 @@
       <c r="K188" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L188" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>0</v>
       </c>
@@ -8825,8 +9451,11 @@
       <c r="K189" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L189" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0</v>
       </c>
@@ -8860,8 +9489,11 @@
       <c r="K190" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L190" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0</v>
       </c>
@@ -8895,8 +9527,11 @@
       <c r="K191" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L191" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0</v>
       </c>
@@ -8930,8 +9565,11 @@
       <c r="K192" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L192" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0</v>
       </c>
@@ -8965,8 +9603,11 @@
       <c r="K193" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L193" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0</v>
       </c>
@@ -9000,8 +9641,11 @@
       <c r="K194" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L194" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0</v>
       </c>
@@ -9035,8 +9679,11 @@
       <c r="K195" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L195" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0</v>
       </c>
@@ -9070,8 +9717,11 @@
       <c r="K196" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L196" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0</v>
       </c>
@@ -9105,8 +9755,11 @@
       <c r="K197" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L197" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0</v>
       </c>
@@ -9140,8 +9793,11 @@
       <c r="K198" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L198" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0</v>
       </c>
@@ -9175,8 +9831,11 @@
       <c r="K199" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L199" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>26832</v>
       </c>
@@ -9209,6 +9868,338 @@
       </c>
       <c r="K200" t="s">
         <v>602</v>
+      </c>
+      <c r="L200" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8D3BA1-73EC-49BC-AC8F-3DCB4E455436}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>603</v>
+      </c>
+      <c r="M1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>604</v>
+      </c>
+      <c r="M2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>4018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>622</v>
+      </c>
+      <c r="M3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>608</v>
+      </c>
+      <c r="M4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>605</v>
+      </c>
+      <c r="M5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4012</v>
+      </c>
+      <c r="B6" t="s">
+        <v>606</v>
+      </c>
+      <c r="M6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4012</v>
+      </c>
+      <c r="B7" t="s">
+        <v>609</v>
+      </c>
+      <c r="M7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4025</v>
+      </c>
+      <c r="B8" t="s">
+        <v>610</v>
+      </c>
+      <c r="M8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>608</v>
+      </c>
+      <c r="M9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3837</v>
+      </c>
+      <c r="B10" t="s">
+        <v>608</v>
+      </c>
+      <c r="M10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3838</v>
+      </c>
+      <c r="B11" t="s">
+        <v>611</v>
+      </c>
+      <c r="M11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4029</v>
+      </c>
+      <c r="B12" t="s">
+        <v>608</v>
+      </c>
+      <c r="M12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3900</v>
+      </c>
+      <c r="B13" t="s">
+        <v>608</v>
+      </c>
+      <c r="M13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3984</v>
+      </c>
+      <c r="B14" t="s">
+        <v>612</v>
+      </c>
+      <c r="M14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>4043</v>
+      </c>
+      <c r="B15" t="s">
+        <v>613</v>
+      </c>
+      <c r="M15" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>4043</v>
+      </c>
+      <c r="B16" t="s">
+        <v>614</v>
+      </c>
+      <c r="M16" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3842</v>
+      </c>
+      <c r="B17" t="s">
+        <v>616</v>
+      </c>
+      <c r="M17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>3842</v>
+      </c>
+      <c r="B18" t="s">
+        <v>615</v>
+      </c>
+      <c r="M18" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>3858</v>
+      </c>
+      <c r="B19" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>3843</v>
+      </c>
+      <c r="B20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>3966</v>
+      </c>
+      <c r="B21" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3987</v>
+      </c>
+      <c r="B22" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3986</v>
+      </c>
+      <c r="B23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3915</v>
+      </c>
+      <c r="B24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>3832</v>
+      </c>
+      <c r="B25" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>4050</v>
+      </c>
+      <c r="B26" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3870</v>
+      </c>
+      <c r="B27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>4010</v>
+      </c>
+      <c r="B28" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4010</v>
+      </c>
+      <c r="B29" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3875</v>
+      </c>
+      <c r="B30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>3963</v>
+      </c>
+      <c r="B31" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3992</v>
+      </c>
+      <c r="B32" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
